--- a/Classwork Excel.xlsx
+++ b/Classwork Excel.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Corporate Training\Six Sigma JT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F93BB4-2044-434A-BCB2-CAD134563E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F9A6B1-8579-4DE2-BE9B-98009E6EBFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F8D5AFBA-B222-4F97-AF74-A894B05780B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{F8D5AFBA-B222-4F97-AF74-A894B05780B6}"/>
   </bookViews>
   <sheets>
     <sheet name="PERT Example-1" sheetId="1" r:id="rId1"/>
     <sheet name="PERT Example-2" sheetId="2" r:id="rId2"/>
+    <sheet name="Correlation &amp; Regression" sheetId="3" r:id="rId3"/>
+    <sheet name="Multiple Regression" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>Activity</t>
   </si>
@@ -148,6 +150,129 @@
   </si>
   <si>
     <t>Task Durations (In Months)</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x*y</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>y^2</t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r = </t>
+  </si>
+  <si>
+    <t>r =</t>
+  </si>
+  <si>
+    <t>a =</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t>(Slope)</t>
+  </si>
+  <si>
+    <t>y'</t>
+  </si>
+  <si>
+    <t>r^2 =</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
   </si>
 </sst>
 </file>
@@ -157,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +312,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -622,11 +755,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -741,6 +894,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,6 +920,1208 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Attendance vs. Final Grade Marks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7875575503011129E-2"/>
+          <c:y val="2.3199787804145566E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.46956701461597733"/>
+                  <c:y val="-0.44004078778441663"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-319F-40A1-86C1-06A72338CC24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Data Point-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression'!$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression'!$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>66.273631840796014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-319F-40A1-86C1-06A72338CC24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Data Point-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression'!$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression'!$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>51.786069651741286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-319F-40A1-86C1-06A72338CC24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2046887040"/>
+        <c:axId val="2046884960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2046887040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046884960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2046884960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046887040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,6 +2374,47 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271097</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>569058</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>16119</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB159B8-E7BA-8E22-FCED-75E935DA7114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1785,7 +3192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E525677C-6F8F-4262-B15F-D1D13FAD511D}">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -2443,4 +3850,708 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AD5D17-17D7-4239-AE2B-3D2174BAA17B}">
+  <dimension ref="A2:G19"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3*D3</f>
+        <v>492</v>
+      </c>
+      <c r="F3" s="1">
+        <f>C3^2</f>
+        <v>36</v>
+      </c>
+      <c r="G3" s="1">
+        <f>D3^2</f>
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E9" si="0">C4*D4</f>
+        <v>172</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:G9" si="1">C4^2</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>666</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>696</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f t="shared" ref="C10:G10" si="2">SUM(C3:C9)</f>
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>511</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>3745</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>579</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>38993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <f>COUNTA(B3:B9)</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <f>(C12*E10-C10*D10)/SQRT((C12*F10-C10^2)*(C12*G10-D10^2))</f>
+        <v>-0.94421517068791783</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <f>$C$18+$C$19*F13</f>
+        <v>66.273631840796014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <f>CORREL(C3:C9,D3:D9)</f>
+        <v>-0.94421517068791805</v>
+      </c>
+      <c r="F14" s="1">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1">
+        <f>$C$18+$C$19*F14</f>
+        <v>51.786069651741286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <f>CORREL(D3:D9,C3:C9)</f>
+        <v>-0.94421517068791805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <f>(D10*F10-C10*E10)/(C12*F10-C10^2)</f>
+        <v>102.49253731343283</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <f>C13^2</f>
+        <v>0.89154228855721385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <f>(C12*E10-C10*D10)/(C12*F10-C10^2)</f>
+        <v>-3.6218905472636815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <f>INTERCEPT(D3:D9,C3:C9)</f>
+        <v>102.49253731343283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <f>SLOPE(D3:D9,C3:C9)</f>
+        <v>-3.621890547263682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102F6DEC-D1BE-4CAF-99FC-8DF26F3CDF9B}">
+  <dimension ref="B2:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>570</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>525</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="53">
+        <v>0.98928820282730667</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <v>670</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="53">
+        <v>0.97869114825328229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>490</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="53">
+        <v>0.95738229650656459</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G8" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="53">
+        <v>14.009087214635695</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>2.65</v>
+      </c>
+      <c r="D11">
+        <v>23.5</v>
+      </c>
+      <c r="E11">
+        <f>H18+H19*C11+H20*D11</f>
+        <v>528.96111062064097</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G13" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="53">
+        <v>2</v>
+      </c>
+      <c r="I13" s="53">
+        <v>18027.49095082546</v>
+      </c>
+      <c r="J13" s="53">
+        <v>9013.7454754127302</v>
+      </c>
+      <c r="K13" s="53">
+        <v>45.928854350588743</v>
+      </c>
+      <c r="L13" s="53">
+        <v>2.1308851746717622E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G14" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="53">
+        <v>2</v>
+      </c>
+      <c r="I14" s="53">
+        <v>392.50904917453863</v>
+      </c>
+      <c r="J14" s="53">
+        <v>196.25452458726932</v>
+      </c>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G15" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="54">
+        <v>4</v>
+      </c>
+      <c r="I15" s="54">
+        <v>18420</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="G17" s="55"/>
+      <c r="H17" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="G18" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="53">
+        <v>-44.81018804626126</v>
+      </c>
+      <c r="I18" s="53">
+        <v>69.246866630890381</v>
+      </c>
+      <c r="J18" s="53">
+        <v>-0.64710780756499753</v>
+      </c>
+      <c r="K18" s="53">
+        <v>0.58391574508017841</v>
+      </c>
+      <c r="L18" s="53">
+        <v>-342.75540778225883</v>
+      </c>
+      <c r="M18" s="53">
+        <v>253.13503168973631</v>
+      </c>
+      <c r="N18" s="53">
+        <v>-342.75540778225883</v>
+      </c>
+      <c r="O18" s="53">
+        <v>253.13503168973631</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="G19" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="53">
+        <v>87.640151849563026</v>
+      </c>
+      <c r="I19" s="53">
+        <v>15.237186664924886</v>
+      </c>
+      <c r="J19" s="53">
+        <v>5.7517279125618073</v>
+      </c>
+      <c r="K19" s="53">
+        <v>2.8922600815111749E-2</v>
+      </c>
+      <c r="L19" s="53">
+        <v>22.079829052021836</v>
+      </c>
+      <c r="M19" s="53">
+        <v>153.20047464710422</v>
+      </c>
+      <c r="N19" s="53">
+        <v>22.079829052021836</v>
+      </c>
+      <c r="O19" s="53">
+        <v>153.20047464710422</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G20" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="54">
+        <v>14.532974309172776</v>
+      </c>
+      <c r="I20" s="54">
+        <v>2.9137375361504319</v>
+      </c>
+      <c r="J20" s="54">
+        <v>4.9877431061870565</v>
+      </c>
+      <c r="K20" s="54">
+        <v>3.7924876930238542E-2</v>
+      </c>
+      <c r="L20" s="54">
+        <v>1.9961735454816427</v>
+      </c>
+      <c r="M20" s="54">
+        <v>27.069775072863909</v>
+      </c>
+      <c r="N20" s="54">
+        <v>1.9961735454816427</v>
+      </c>
+      <c r="O20" s="54">
+        <v>27.069775072863909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>